--- a/프로젝트/설계 단계 계획서/간트 차트 ver1.0.xlsx
+++ b/프로젝트/설계 단계 계획서/간트 차트 ver1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-07\Desktop\2조 소프트1\프로젝트\설계 단계 계획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-08\Desktop\2조 소프트\프로젝트\설계 단계 계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1522,55 +1522,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,6 +1534,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,8 +1899,8 @@
   </sheetPr>
   <dimension ref="A1:AX92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1970,49 +1970,49 @@
     </row>
     <row r="2" spans="1:50" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="97" t="s">
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="84" t="s">
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
@@ -2030,49 +2030,49 @@
     </row>
     <row r="3" spans="1:50" ht="21" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="85" t="s">
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -2194,155 +2194,155 @@
     </row>
     <row r="6" spans="1:50" ht="17.25" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="91" t="s">
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="91"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="91"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="92"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="97"/>
     </row>
     <row r="7" spans="1:50" ht="17.25" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="104" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101" t="s">
+      <c r="J7" s="84"/>
+      <c r="K7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="101" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101" t="s">
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101" t="s">
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="88" t="s">
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89" t="s">
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="88" t="s">
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89" t="s">
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="88" t="s">
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="94"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="99"/>
     </row>
     <row r="8" spans="1:50" ht="17.25" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="43" t="s">
         <v>13</v>
       </c>
@@ -7531,43 +7531,43 @@
       <c r="J90" s="22"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="26"/>
       <c r="O90" s="34"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
+      <c r="R90" s="79"/>
+      <c r="S90" s="26"/>
       <c r="T90" s="21"/>
       <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
+      <c r="V90" s="79"/>
+      <c r="W90" s="26"/>
       <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
+      <c r="Y90" s="79"/>
+      <c r="Z90" s="26"/>
       <c r="AA90" s="21"/>
       <c r="AB90" s="22"/>
       <c r="AC90" s="22"/>
       <c r="AD90" s="22"/>
-      <c r="AE90" s="22"/>
-      <c r="AF90" s="22"/>
-      <c r="AG90" s="22"/>
+      <c r="AE90" s="79"/>
+      <c r="AF90" s="26"/>
+      <c r="AG90" s="79"/>
       <c r="AH90" s="26"/>
       <c r="AI90" s="60"/>
-      <c r="AJ90" s="60"/>
-      <c r="AK90" s="60"/>
+      <c r="AJ90" s="79"/>
+      <c r="AK90" s="26"/>
       <c r="AL90" s="60"/>
       <c r="AM90" s="60"/>
       <c r="AN90" s="60"/>
       <c r="AO90" s="60"/>
-      <c r="AP90" s="60"/>
-      <c r="AQ90" s="60"/>
+      <c r="AP90" s="79"/>
+      <c r="AQ90" s="26"/>
       <c r="AR90" s="60"/>
       <c r="AS90" s="26"/>
       <c r="AT90" s="26"/>
       <c r="AU90" s="26"/>
-      <c r="AV90" s="79"/>
-      <c r="AW90" s="80"/>
+      <c r="AV90" s="26"/>
+      <c r="AW90" s="35"/>
       <c r="AX90" s="22"/>
     </row>
     <row r="91" spans="1:50" ht="21" customHeight="1">
@@ -7698,12 +7698,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P2:AJ2"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AC6:AX6"/>
+    <mergeCell ref="AT7:AX7"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D2:G2"/>
@@ -7714,17 +7719,12 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="AO7:AS7"/>
-    <mergeCell ref="AC6:AX6"/>
-    <mergeCell ref="AT7:AX7"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P2:AJ2"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H33">
